--- a/analise/casos de uso/Requisitos de Sistemas.xlsx
+++ b/analise/casos de uso/Requisitos de Sistemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\casos de uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD02B45-E72F-40F0-BB84-4BAFC761DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4B7CF-F98C-420A-B6B9-F5535860833E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,9 +466,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,12 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,14 +518,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -824,7 +824,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,439 +862,439 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13"/>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13"/>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="32">
-        <v>0</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="32">
+      <c r="A29" s="27">
         <v>2</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6">
     <cfRule type="iconSet" priority="15">

--- a/analise/casos de uso/Requisitos de Sistemas.xlsx
+++ b/analise/casos de uso/Requisitos de Sistemas.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\casos de uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4B7CF-F98C-420A-B6B9-F5535860833E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4177F49F-9EC7-4F60-80D7-ACEA046C75FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprints" sheetId="3" r:id="rId2"/>
+    <sheet name="Borneown" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Modulo</t>
   </si>
@@ -211,13 +213,112 @@
   </si>
   <si>
     <t>Clientes devem poder visualizar todos os seu feedback outros clientes deve também poder consultar os comentarios de outros clientes na aba de consulta os livros para poderem ter conhecimento de outros usuarios sobre o livre que desejam adquirir.</t>
+  </si>
+  <si>
+    <t>Tabela Borneown</t>
+  </si>
+  <si>
+    <t>Sprint de 3 dias</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>A Rezalizar</t>
+  </si>
+  <si>
+    <t>Dia 0</t>
+  </si>
+  <si>
+    <t>Dia 1</t>
+  </si>
+  <si>
+    <t>Dia 2</t>
+  </si>
+  <si>
+    <t>Dia 3</t>
+  </si>
+  <si>
+    <t>Dia 4</t>
+  </si>
+  <si>
+    <t>Dia 5</t>
+  </si>
+  <si>
+    <t>Dia 6</t>
+  </si>
+  <si>
+    <t>Dia 7</t>
+  </si>
+  <si>
+    <t>Dia 8</t>
+  </si>
+  <si>
+    <t>Dia 9</t>
+  </si>
+  <si>
+    <t>Dia 10</t>
+  </si>
+  <si>
+    <t>Dia 11</t>
+  </si>
+  <si>
+    <t>Dia 12</t>
+  </si>
+  <si>
+    <t>Dia 13</t>
+  </si>
+  <si>
+    <t>Dia 14</t>
+  </si>
+  <si>
+    <t>Dia 15</t>
+  </si>
+  <si>
+    <t>Dia 16</t>
+  </si>
+  <si>
+    <t>Calculo do Planejamento de Realizado</t>
+  </si>
+  <si>
+    <t>Total de Tarefas</t>
+  </si>
+  <si>
+    <t>Planejamento diario</t>
+  </si>
+  <si>
+    <t>Data inicio:</t>
+  </si>
+  <si>
+    <t>Data final:</t>
+  </si>
+  <si>
+    <t>Tarefas não finalizadas até o prazo:</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Data de Entrega</t>
+  </si>
+  <si>
+    <t>Dia 17</t>
+  </si>
+  <si>
+    <t>Dia 18</t>
+  </si>
+  <si>
+    <t>Sprints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +392,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +452,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -439,16 +559,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color theme="6" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="6" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,32 +696,72 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Ênfase1" xfId="4" builtinId="30"/>
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Ênfase3" xfId="5" builtinId="37"/>
+    <cellStyle name="Ênfase4" xfId="6" builtinId="41"/>
     <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -556,6 +771,1258 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Borneown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Borneown!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dia 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Borneown!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C78D-4862-B76F-A2A43CAABE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Borneown!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dia 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Borneown!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C78D-4862-B76F-A2A43CAABE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Borneown!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dia 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Borneown!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C78D-4862-B76F-A2A43CAABE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Borneown!$A$3:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Dia 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dia 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dia 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dia 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dia 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dia 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dia 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dia 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dia 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dia 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dia 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dia 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dia 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dia 13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dia 14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dia 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Borneown!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C78D-4862-B76F-A2A43CAABE99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1231953936"/>
+        <c:axId val="1220897120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1231953936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220897120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1220897120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1231953936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D1105C-A2B3-4A32-8CB0-832B2FC35C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +2329,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -883,7 +2350,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -902,7 +2369,7 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
@@ -921,7 +2388,7 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -940,7 +2407,7 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
@@ -959,7 +2426,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -980,7 +2447,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
@@ -999,7 +2466,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
@@ -1018,7 +2485,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
@@ -1037,7 +2504,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
@@ -1056,7 +2523,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1077,7 +2544,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
@@ -1096,7 +2563,7 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
@@ -1115,7 +2582,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1134,7 +2601,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +2620,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
@@ -1172,7 +2639,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1193,7 +2660,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
@@ -1212,7 +2679,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="14" t="s">
         <v>56</v>
       </c>
@@ -1258,10 +2725,10 @@
       <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
@@ -1353,4 +2820,293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E3989-44EE-421D-BBD1-34EC265F0F69}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="49" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B0F65-C746-424A-8F79-B872BB8F9443}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="F1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="F3" s="40">
+        <f>COUNTA(Sprints!A3:A143)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <f>F3/COUNTA(A3:A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="43">
+        <v>43991</v>
+      </c>
+      <c r="C24" s="44"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="43">
+        <v>43995</v>
+      </c>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/analise/casos de uso/Requisitos de Sistemas.xlsx
+++ b/analise/casos de uso/Requisitos de Sistemas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\casos de uso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914D6B6-9F43-4155-972B-337EC83F4834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C103F5-5896-4550-89AC-A747C12CBEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>Modulo</t>
   </si>
@@ -203,13 +203,7 @@
     <t>Listar Feedback</t>
   </si>
   <si>
-    <t>Alterar Feedback</t>
-  </si>
-  <si>
     <t>Deve ser possivel que acada livro que um cliente compre ele possa avaliar e comentar sua experiencia com essa compra.</t>
-  </si>
-  <si>
-    <t>Deve ser possivel alterar a avaliação e os os comentarios de um feedback.</t>
   </si>
   <si>
     <t>Clientes devem poder visualizar todos os seu feedback outros clientes deve também poder consultar os comentarios de outros clientes na aba de consulta os livros para poderem ter conhecimento de outros usuarios sobre o livre que desejam adquirir.</t>
@@ -303,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +381,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -654,7 +664,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,83 +750,89 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2150,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2207,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2212,7 +2228,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2247,7 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2266,7 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -2269,7 +2285,7 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2288,7 +2304,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2309,7 +2325,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2328,7 +2344,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2363,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2382,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2401,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2406,7 +2422,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2441,7 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2460,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2479,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2498,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
@@ -2501,7 +2517,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2513,8 +2529,8 @@
       <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>57</v>
+      <c r="E18" s="65" t="s">
+        <v>56</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -2522,7 +2538,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
@@ -2532,98 +2548,79 @@
       <c r="D19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>59</v>
+      <c r="E19" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="11">
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>0</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="41"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="23" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
-        <v>2</v>
-      </c>
-      <c r="B29" s="23" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6">
     <cfRule type="iconSet" priority="15">
@@ -2661,7 +2658,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
+  <conditionalFormatting sqref="A26:A28">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2670,8 +2667,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
-    <cfRule type="iconSet" priority="18">
+  <conditionalFormatting sqref="F18:F19">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2698,34 +2695,34 @@
     <col min="2" max="2" width="19.7109375" style="36" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="A1" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -2733,1142 +2730,1137 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="53">
+      <c r="B3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="52">
         <v>44121</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="53">
+      <c r="B6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="52">
         <v>44123</v>
       </c>
     </row>
     <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="51"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="55"/>
     </row>
     <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="50"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="58">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="52">
         <v>44125</v>
       </c>
     </row>
     <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="51"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="50"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
+      <c r="A12" s="58">
         <v>4</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="53">
+      <c r="B12" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="52">
         <v>44127</v>
       </c>
     </row>
     <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="51"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="50"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="58">
         <v>5</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="53">
+      <c r="B15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="52">
         <v>44129</v>
       </c>
     </row>
     <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="51"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="50"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="A18" s="58">
         <v>6</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="53">
+      <c r="B18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="52">
         <v>44131</v>
       </c>
     </row>
     <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="51"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="50"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
+      <c r="A21" s="58">
         <v>7</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="B21" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="52">
         <v>44133</v>
       </c>
     </row>
     <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="50"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="41">
         <v>8</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="42">
+        <v>44135</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>81</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="58">
-        <v>44135</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="56"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="56"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="56"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="56"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="56"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="56"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="56"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="56"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="56"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="56"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="56"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="56"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="56"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="56"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="56"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="56"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="56"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="56"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="56"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="56"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="56"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="56"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="56"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="56"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="56"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="56"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="56"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="56"/>
+      <c r="D51" s="40"/>
     </row>
     <row r="52" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="56"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="56"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="56"/>
+      <c r="D54" s="40"/>
     </row>
     <row r="55" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="56"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="56"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="56"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="56"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="56"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="56"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="56"/>
+      <c r="D61" s="40"/>
     </row>
     <row r="62" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="56"/>
+      <c r="D62" s="40"/>
     </row>
     <row r="63" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="56"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="56"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="56"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="56"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="56"/>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="56"/>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="56"/>
+      <c r="D69" s="40"/>
     </row>
     <row r="70" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="56"/>
+      <c r="D70" s="40"/>
     </row>
     <row r="71" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="56"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="56"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="56"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="56"/>
+      <c r="D74" s="40"/>
     </row>
     <row r="75" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="56"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="56"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="56"/>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="56"/>
+      <c r="D78" s="40"/>
     </row>
     <row r="79" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="56"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="56"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="56"/>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="56"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="56"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="56"/>
+      <c r="D84" s="40"/>
     </row>
     <row r="85" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="56"/>
+      <c r="D85" s="40"/>
     </row>
     <row r="86" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="56"/>
+      <c r="D86" s="40"/>
     </row>
     <row r="87" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="56"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="56"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="56"/>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="56"/>
+      <c r="D90" s="40"/>
     </row>
     <row r="91" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="56"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="56"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="56"/>
+      <c r="D93" s="40"/>
     </row>
     <row r="94" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="56"/>
+      <c r="D94" s="40"/>
     </row>
     <row r="95" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="56"/>
+      <c r="D95" s="40"/>
     </row>
     <row r="96" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="56"/>
+      <c r="D96" s="40"/>
     </row>
     <row r="97" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="56"/>
+      <c r="D97" s="40"/>
     </row>
     <row r="98" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="56"/>
+      <c r="D98" s="40"/>
     </row>
     <row r="99" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="56"/>
+      <c r="D99" s="40"/>
     </row>
     <row r="100" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="56"/>
+      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="56"/>
+      <c r="D101" s="40"/>
     </row>
     <row r="102" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="56"/>
+      <c r="D102" s="40"/>
     </row>
     <row r="103" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="56"/>
+      <c r="D103" s="40"/>
     </row>
     <row r="104" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="56"/>
+      <c r="D104" s="40"/>
     </row>
     <row r="105" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="56"/>
+      <c r="D105" s="40"/>
     </row>
     <row r="106" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="56"/>
+      <c r="D106" s="40"/>
     </row>
     <row r="107" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="56"/>
+      <c r="D107" s="40"/>
     </row>
     <row r="108" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="56"/>
+      <c r="D108" s="40"/>
     </row>
     <row r="109" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="56"/>
+      <c r="D109" s="40"/>
     </row>
     <row r="110" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="56"/>
+      <c r="D110" s="40"/>
     </row>
     <row r="111" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="56"/>
+      <c r="D111" s="40"/>
     </row>
     <row r="112" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="56"/>
+      <c r="D112" s="40"/>
     </row>
     <row r="113" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="56"/>
+      <c r="D113" s="40"/>
     </row>
     <row r="114" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="56"/>
+      <c r="D114" s="40"/>
     </row>
     <row r="115" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="56"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="56"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="56"/>
+      <c r="D117" s="40"/>
     </row>
     <row r="118" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="56"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="56"/>
+      <c r="D119" s="40"/>
     </row>
     <row r="120" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="56"/>
+      <c r="D120" s="40"/>
     </row>
     <row r="121" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="56"/>
+      <c r="D121" s="40"/>
     </row>
     <row r="122" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="56"/>
+      <c r="D122" s="40"/>
     </row>
     <row r="123" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="56"/>
+      <c r="D123" s="40"/>
     </row>
     <row r="124" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="56"/>
+      <c r="D124" s="40"/>
     </row>
     <row r="125" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="56"/>
+      <c r="D125" s="40"/>
     </row>
     <row r="126" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="56"/>
+      <c r="D126" s="40"/>
     </row>
     <row r="127" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="56"/>
+      <c r="D127" s="40"/>
     </row>
     <row r="128" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="56"/>
+      <c r="D128" s="40"/>
     </row>
     <row r="129" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="56"/>
+      <c r="D129" s="40"/>
     </row>
     <row r="130" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="56"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="56"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="56"/>
+      <c r="D132" s="40"/>
     </row>
     <row r="133" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="56"/>
+      <c r="D133" s="40"/>
     </row>
     <row r="134" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="56"/>
+      <c r="D134" s="40"/>
     </row>
     <row r="135" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="56"/>
+      <c r="D135" s="40"/>
     </row>
     <row r="136" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="56"/>
+      <c r="D136" s="40"/>
     </row>
     <row r="137" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="56"/>
+      <c r="D137" s="40"/>
     </row>
     <row r="138" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="56"/>
+      <c r="D138" s="40"/>
     </row>
     <row r="139" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="56"/>
+      <c r="D139" s="40"/>
     </row>
     <row r="140" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="56"/>
+      <c r="D140" s="40"/>
     </row>
     <row r="141" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="56"/>
+      <c r="D141" s="40"/>
     </row>
     <row r="142" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="56"/>
+      <c r="D142" s="40"/>
     </row>
     <row r="143" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="56"/>
+      <c r="D143" s="40"/>
     </row>
     <row r="144" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="56"/>
+      <c r="D144" s="40"/>
     </row>
     <row r="145" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="56"/>
+      <c r="D145" s="40"/>
     </row>
     <row r="146" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="56"/>
+      <c r="D146" s="40"/>
     </row>
     <row r="147" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="56"/>
+      <c r="D147" s="40"/>
     </row>
     <row r="148" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="56"/>
+      <c r="D148" s="40"/>
     </row>
     <row r="149" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="56"/>
+      <c r="D149" s="40"/>
     </row>
     <row r="150" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="56"/>
+      <c r="D150" s="40"/>
     </row>
     <row r="151" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="56"/>
+      <c r="D151" s="40"/>
     </row>
     <row r="152" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="56"/>
+      <c r="D152" s="40"/>
     </row>
     <row r="153" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="56"/>
+      <c r="D153" s="40"/>
     </row>
     <row r="154" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="56"/>
+      <c r="D154" s="40"/>
     </row>
     <row r="155" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="56"/>
+      <c r="D155" s="40"/>
     </row>
     <row r="156" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="56"/>
+      <c r="D156" s="40"/>
     </row>
     <row r="157" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="56"/>
+      <c r="D157" s="40"/>
     </row>
     <row r="158" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="56"/>
+      <c r="D158" s="40"/>
     </row>
     <row r="159" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="56"/>
+      <c r="D159" s="40"/>
     </row>
     <row r="160" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="56"/>
+      <c r="D160" s="40"/>
     </row>
     <row r="161" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="56"/>
+      <c r="D161" s="40"/>
     </row>
     <row r="162" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="56"/>
+      <c r="D162" s="40"/>
     </row>
     <row r="163" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="56"/>
+      <c r="D163" s="40"/>
     </row>
     <row r="164" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="56"/>
+      <c r="D164" s="40"/>
     </row>
     <row r="165" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="56"/>
+      <c r="D165" s="40"/>
     </row>
     <row r="166" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="56"/>
+      <c r="D166" s="40"/>
     </row>
     <row r="167" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="56"/>
+      <c r="D167" s="40"/>
     </row>
     <row r="168" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="56"/>
+      <c r="D168" s="40"/>
     </row>
     <row r="169" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="56"/>
+      <c r="D169" s="40"/>
     </row>
     <row r="170" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="56"/>
+      <c r="D170" s="40"/>
     </row>
     <row r="171" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="56"/>
+      <c r="D171" s="40"/>
     </row>
     <row r="172" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="56"/>
+      <c r="D172" s="40"/>
     </row>
     <row r="173" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="56"/>
+      <c r="D173" s="40"/>
     </row>
     <row r="174" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="56"/>
+      <c r="D174" s="40"/>
     </row>
     <row r="175" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="56"/>
+      <c r="D175" s="40"/>
     </row>
     <row r="176" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="56"/>
+      <c r="D176" s="40"/>
     </row>
     <row r="177" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="56"/>
+      <c r="D177" s="40"/>
     </row>
     <row r="178" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="56"/>
+      <c r="D178" s="40"/>
     </row>
     <row r="179" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="56"/>
+      <c r="D179" s="40"/>
     </row>
     <row r="180" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="56"/>
+      <c r="D180" s="40"/>
     </row>
     <row r="181" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="56"/>
+      <c r="D181" s="40"/>
     </row>
     <row r="182" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="56"/>
+      <c r="D182" s="40"/>
     </row>
     <row r="183" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="56"/>
+      <c r="D183" s="40"/>
     </row>
     <row r="184" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="56"/>
+      <c r="D184" s="40"/>
     </row>
     <row r="185" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="56"/>
+      <c r="D185" s="40"/>
     </row>
     <row r="186" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="56"/>
+      <c r="D186" s="40"/>
     </row>
     <row r="187" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="56"/>
+      <c r="D187" s="40"/>
     </row>
     <row r="188" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="56"/>
+      <c r="D188" s="40"/>
     </row>
     <row r="189" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="56"/>
+      <c r="D189" s="40"/>
     </row>
     <row r="190" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="56"/>
+      <c r="D190" s="40"/>
     </row>
     <row r="191" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="56"/>
+      <c r="D191" s="40"/>
     </row>
     <row r="192" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="56"/>
+      <c r="D192" s="40"/>
     </row>
     <row r="193" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="56"/>
+      <c r="D193" s="40"/>
     </row>
     <row r="194" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="56"/>
+      <c r="D194" s="40"/>
     </row>
     <row r="195" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="56"/>
+      <c r="D195" s="40"/>
     </row>
     <row r="196" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="56"/>
+      <c r="D196" s="40"/>
     </row>
     <row r="197" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="56"/>
+      <c r="D197" s="40"/>
     </row>
     <row r="198" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="56"/>
+      <c r="D198" s="40"/>
     </row>
     <row r="199" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="56"/>
+      <c r="D199" s="40"/>
     </row>
     <row r="200" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="56"/>
+      <c r="D200" s="40"/>
     </row>
     <row r="201" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="56"/>
+      <c r="D201" s="40"/>
     </row>
     <row r="202" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="56"/>
+      <c r="D202" s="40"/>
     </row>
     <row r="203" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="56"/>
+      <c r="D203" s="40"/>
     </row>
     <row r="204" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="56"/>
+      <c r="D204" s="40"/>
     </row>
     <row r="205" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="56"/>
+      <c r="D205" s="40"/>
     </row>
     <row r="206" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="56"/>
+      <c r="D206" s="40"/>
     </row>
     <row r="207" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="56"/>
+      <c r="D207" s="40"/>
     </row>
     <row r="208" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="56"/>
+      <c r="D208" s="40"/>
     </row>
     <row r="209" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="56"/>
+      <c r="D209" s="40"/>
     </row>
     <row r="210" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="56"/>
+      <c r="D210" s="40"/>
     </row>
     <row r="211" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="56"/>
+      <c r="D211" s="40"/>
     </row>
     <row r="212" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="56"/>
+      <c r="D212" s="40"/>
     </row>
     <row r="213" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="56"/>
+      <c r="D213" s="40"/>
     </row>
     <row r="214" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="56"/>
+      <c r="D214" s="40"/>
     </row>
     <row r="215" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="56"/>
+      <c r="D215" s="40"/>
     </row>
     <row r="216" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="56"/>
+      <c r="D216" s="40"/>
     </row>
     <row r="217" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="56"/>
+      <c r="D217" s="40"/>
     </row>
     <row r="218" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="56"/>
+      <c r="D218" s="40"/>
     </row>
     <row r="219" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="56"/>
+      <c r="D219" s="40"/>
     </row>
     <row r="220" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="56"/>
+      <c r="D220" s="40"/>
     </row>
     <row r="221" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="56"/>
+      <c r="D221" s="40"/>
     </row>
     <row r="222" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="56"/>
+      <c r="D222" s="40"/>
     </row>
     <row r="223" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="56"/>
+      <c r="D223" s="40"/>
     </row>
     <row r="224" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="56"/>
+      <c r="D224" s="40"/>
     </row>
     <row r="225" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="56"/>
+      <c r="D225" s="40"/>
     </row>
     <row r="226" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="56"/>
+      <c r="D226" s="40"/>
     </row>
     <row r="227" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="56"/>
+      <c r="D227" s="40"/>
     </row>
     <row r="228" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="56"/>
+      <c r="D228" s="40"/>
     </row>
     <row r="229" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="56"/>
+      <c r="D229" s="40"/>
     </row>
     <row r="230" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="56"/>
+      <c r="D230" s="40"/>
     </row>
     <row r="231" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="56"/>
+      <c r="D231" s="40"/>
     </row>
     <row r="232" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="56"/>
+      <c r="D232" s="40"/>
     </row>
     <row r="233" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="56"/>
+      <c r="D233" s="40"/>
     </row>
     <row r="234" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="56"/>
+      <c r="D234" s="40"/>
     </row>
     <row r="235" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="56"/>
+      <c r="D235" s="40"/>
     </row>
     <row r="236" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="56"/>
+      <c r="D236" s="40"/>
     </row>
     <row r="237" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="56"/>
+      <c r="D237" s="40"/>
     </row>
     <row r="238" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="56"/>
+      <c r="D238" s="40"/>
     </row>
     <row r="239" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="56"/>
+      <c r="D239" s="40"/>
     </row>
     <row r="240" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="56"/>
+      <c r="D240" s="40"/>
     </row>
     <row r="241" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="56"/>
+      <c r="D241" s="40"/>
     </row>
     <row r="242" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="56"/>
+      <c r="D242" s="40"/>
     </row>
     <row r="243" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="56"/>
+      <c r="D243" s="40"/>
     </row>
     <row r="244" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="56"/>
+      <c r="D244" s="40"/>
     </row>
     <row r="245" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="56"/>
+      <c r="D245" s="40"/>
     </row>
     <row r="246" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="56"/>
+      <c r="D246" s="40"/>
     </row>
     <row r="247" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="56"/>
+      <c r="D247" s="40"/>
     </row>
     <row r="248" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="56"/>
+      <c r="D248" s="40"/>
     </row>
     <row r="249" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="56"/>
+      <c r="D249" s="40"/>
     </row>
     <row r="250" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="56"/>
+      <c r="D250" s="40"/>
     </row>
     <row r="251" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="56"/>
+      <c r="D251" s="40"/>
     </row>
     <row r="252" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="56"/>
+      <c r="D252" s="40"/>
     </row>
     <row r="253" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="56"/>
+      <c r="D253" s="40"/>
     </row>
     <row r="254" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="56"/>
+      <c r="D254" s="40"/>
     </row>
     <row r="255" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="56"/>
+      <c r="D255" s="40"/>
     </row>
     <row r="256" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="56"/>
+      <c r="D256" s="40"/>
     </row>
     <row r="257" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="56"/>
+      <c r="D257" s="40"/>
     </row>
     <row r="258" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="56"/>
+      <c r="D258" s="40"/>
     </row>
     <row r="259" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="56"/>
+      <c r="D259" s="40"/>
     </row>
     <row r="260" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="56"/>
+      <c r="D260" s="40"/>
     </row>
     <row r="261" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="56"/>
+      <c r="D261" s="40"/>
     </row>
     <row r="262" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="56"/>
+      <c r="D262" s="40"/>
     </row>
     <row r="263" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="56"/>
+      <c r="D263" s="40"/>
     </row>
     <row r="264" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="56"/>
+      <c r="D264" s="40"/>
     </row>
     <row r="265" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="56"/>
+      <c r="D265" s="40"/>
     </row>
     <row r="266" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="56"/>
+      <c r="D266" s="40"/>
     </row>
     <row r="267" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="56"/>
+      <c r="D267" s="40"/>
     </row>
     <row r="268" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="56"/>
+      <c r="D268" s="40"/>
     </row>
     <row r="269" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="56"/>
+      <c r="D269" s="40"/>
     </row>
     <row r="270" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="56"/>
+      <c r="D270" s="40"/>
     </row>
     <row r="271" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="56"/>
+      <c r="D271" s="40"/>
     </row>
     <row r="272" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="56"/>
+      <c r="D272" s="40"/>
     </row>
     <row r="273" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="56"/>
+      <c r="D273" s="40"/>
     </row>
     <row r="274" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="56"/>
+      <c r="D274" s="40"/>
     </row>
     <row r="275" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="56"/>
+      <c r="D275" s="40"/>
     </row>
     <row r="276" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="56"/>
+      <c r="D276" s="40"/>
     </row>
     <row r="277" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="56"/>
+      <c r="D277" s="40"/>
     </row>
     <row r="278" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="56"/>
+      <c r="D278" s="40"/>
     </row>
     <row r="279" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="56"/>
+      <c r="D279" s="40"/>
     </row>
     <row r="280" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="56"/>
+      <c r="D280" s="40"/>
     </row>
     <row r="281" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="56"/>
+      <c r="D281" s="40"/>
     </row>
     <row r="282" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="56"/>
+      <c r="D282" s="40"/>
     </row>
     <row r="283" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="56"/>
+      <c r="D283" s="40"/>
     </row>
     <row r="284" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="56"/>
+      <c r="D284" s="40"/>
     </row>
     <row r="285" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="56"/>
+      <c r="D285" s="40"/>
     </row>
     <row r="286" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="56"/>
+      <c r="D286" s="40"/>
     </row>
     <row r="287" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="56"/>
+      <c r="D287" s="40"/>
     </row>
     <row r="288" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="56"/>
+      <c r="D288" s="40"/>
     </row>
     <row r="289" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="56"/>
+      <c r="D289" s="40"/>
     </row>
     <row r="290" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="56"/>
+      <c r="D290" s="40"/>
     </row>
     <row r="291" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="56"/>
+      <c r="D291" s="40"/>
     </row>
     <row r="292" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="56"/>
+      <c r="D292" s="40"/>
     </row>
     <row r="293" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="56"/>
+      <c r="D293" s="40"/>
     </row>
     <row r="294" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="56"/>
+      <c r="D294" s="40"/>
     </row>
     <row r="295" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="56"/>
+      <c r="D295" s="40"/>
     </row>
     <row r="296" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="56"/>
+      <c r="D296" s="40"/>
     </row>
     <row r="297" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="56"/>
+      <c r="D297" s="40"/>
     </row>
     <row r="298" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="56"/>
+      <c r="D298" s="40"/>
     </row>
     <row r="299" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="56"/>
+      <c r="D299" s="40"/>
     </row>
     <row r="300" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="56"/>
+      <c r="D300" s="40"/>
     </row>
     <row r="301" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="56"/>
+      <c r="D301" s="40"/>
     </row>
     <row r="302" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="56"/>
+      <c r="D302" s="40"/>
     </row>
     <row r="303" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="56"/>
+      <c r="D303" s="40"/>
     </row>
     <row r="304" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="56"/>
+      <c r="D304" s="40"/>
     </row>
     <row r="305" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="56"/>
+      <c r="D305" s="40"/>
     </row>
     <row r="306" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="56"/>
+      <c r="D306" s="40"/>
     </row>
     <row r="307" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="56"/>
+      <c r="D307" s="40"/>
     </row>
     <row r="308" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="56"/>
+      <c r="D308" s="40"/>
     </row>
     <row r="309" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="56"/>
+      <c r="D309" s="40"/>
     </row>
     <row r="310" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="56"/>
+      <c r="D310" s="40"/>
     </row>
     <row r="311" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="56"/>
+      <c r="D311" s="40"/>
     </row>
     <row r="312" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="56"/>
+      <c r="D312" s="40"/>
     </row>
     <row r="313" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="56"/>
+      <c r="D313" s="40"/>
     </row>
     <row r="314" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="56"/>
+      <c r="D314" s="40"/>
     </row>
     <row r="315" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="56"/>
+      <c r="D315" s="40"/>
     </row>
     <row r="316" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="56"/>
+      <c r="D316" s="40"/>
     </row>
     <row r="317" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="56"/>
+      <c r="D317" s="40"/>
     </row>
     <row r="318" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="56"/>
+      <c r="D318" s="40"/>
     </row>
     <row r="319" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="56"/>
+      <c r="D319" s="40"/>
     </row>
     <row r="320" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="56"/>
+      <c r="D320" s="40"/>
     </row>
     <row r="321" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="56"/>
+      <c r="D321" s="40"/>
     </row>
     <row r="322" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="56"/>
+      <c r="D322" s="40"/>
     </row>
     <row r="323" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="56"/>
+      <c r="D323" s="40"/>
     </row>
     <row r="324" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="56"/>
+      <c r="D324" s="40"/>
     </row>
     <row r="325" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="56"/>
+      <c r="D325" s="40"/>
     </row>
     <row r="326" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="56"/>
+      <c r="D326" s="40"/>
     </row>
     <row r="327" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="56"/>
+      <c r="D327" s="40"/>
     </row>
     <row r="328" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="56"/>
+      <c r="D328" s="40"/>
     </row>
     <row r="329" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="56"/>
+      <c r="D329" s="40"/>
     </row>
     <row r="330" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="56"/>
+      <c r="D330" s="40"/>
     </row>
     <row r="331" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="56"/>
+      <c r="D331" s="40"/>
     </row>
     <row r="332" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="56"/>
+      <c r="D332" s="40"/>
     </row>
     <row r="333" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="56"/>
+      <c r="D333" s="40"/>
     </row>
     <row r="334" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="56"/>
+      <c r="D334" s="40"/>
     </row>
     <row r="335" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="56"/>
+      <c r="D335" s="40"/>
     </row>
     <row r="336" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="56"/>
+      <c r="D336" s="40"/>
     </row>
     <row r="337" ht="15" x14ac:dyDescent="0.25"/>
     <row r="338" ht="15" x14ac:dyDescent="0.25"/>
     <row r="339" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="A1:F1"/>
@@ -3879,6 +3871,11 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3904,53 +3901,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="43"/>
+      <c r="A1" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="F1" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="61">
+        <v>61</v>
+      </c>
+      <c r="B3" s="45">
         <f>F3</f>
         <v>21</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="45">
         <f>F3</f>
         <v>21</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="46">
         <v>44119</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="44">
         <f>COUNTA(Sprints!B3:B23)</f>
         <v>21</v>
       </c>
@@ -3961,112 +3958,112 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="30">
         <f>B3-$G$3</f>
         <v>18.375</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="47">
+      <c r="D4" s="37">
         <f>Sprints!D3</f>
         <v>44121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="30">
         <f t="shared" ref="B5:B11" si="0">B4-$G$3</f>
         <v>15.75</v>
       </c>
       <c r="C5" s="30"/>
-      <c r="D5" s="47">
+      <c r="D5" s="37">
         <f>Sprints!D6</f>
         <v>44123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="30">
         <f t="shared" si="0"/>
         <v>13.125</v>
       </c>
       <c r="C6" s="30"/>
-      <c r="D6" s="47">
+      <c r="D6" s="37">
         <f>Sprints!D9</f>
         <v>44125</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="30">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="47">
+      <c r="D7" s="37">
         <f>Sprints!D12</f>
         <v>44127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>7.875</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="47">
+      <c r="D8" s="37">
         <f>Sprints!D15</f>
         <v>44129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="C9" s="30"/>
-      <c r="D9" s="47">
+      <c r="D9" s="37">
         <f>Sprints!D18</f>
         <v>44131</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="47">
+      <c r="D10" s="37">
         <f>Sprints!D21</f>
         <v>44133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="47">
+      <c r="D11" s="37">
         <f>Sprints!D23</f>
         <v>44135</v>
       </c>
@@ -4074,27 +4071,27 @@
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="63">
+        <v>71</v>
+      </c>
+      <c r="B13" s="61">
         <v>43997</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="62"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="64"/>
+        <v>72</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="44"/>
+      <c r="A15" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="34"/>
     </row>
   </sheetData>
